--- a/orenda_Kyiv_lun_rieltor.xlsx
+++ b/orenda_Kyiv_lun_rieltor.xlsx
@@ -10780,8 +10780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3451" workbookViewId="0">
-      <selection activeCell="A655" sqref="A655"/>
+    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="C676" sqref="C676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14837,7 +14837,7 @@
         <v>9</v>
       </c>
       <c r="B152">
-        <v>1374168</v>
+        <v>22164</v>
       </c>
       <c r="C152">
         <v>122</v>
@@ -28875,7 +28875,7 @@
         <v>10</v>
       </c>
       <c r="B682">
-        <v>1182080</v>
+        <v>4999</v>
       </c>
       <c r="C682">
         <v>36</v>
@@ -54552,7 +54552,7 @@
         <v>10</v>
       </c>
       <c r="B1651">
-        <v>3509300</v>
+        <v>20000</v>
       </c>
       <c r="C1651">
         <v>92</v>
